--- a/netlists/results/sequentialResults.xlsx
+++ b/netlists/results/sequentialResults.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="445" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="222" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="sum" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="matrixmult" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="matrixmult_32bit" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="matrixmult_8bit" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
   <si>
     <t>Sum (width/c)</t>
   </si>
@@ -150,7 +151,7 @@
     <t>CS (B)</t>
   </si>
   <si>
-    <t>Sequential storage efficiency </t>
+    <t>Sequential storage efficiency</t>
   </si>
   <si>
     <t>WCS (XOR garble)</t>
@@ -159,7 +160,7 @@
     <t>Sequential Time Overhead</t>
   </si>
   <si>
-    <t>matrixmult (N, N^ clcok)</t>
+    <t>matrixmult 32bit (N, N^ clcok)</t>
   </si>
   <si>
     <t>3_0</t>
@@ -208,23 +209,28 @@
   </si>
   <si>
     <t>16_3</t>
+  </si>
+  <si>
+    <t>matrixmult 8bit (N, N^ clcok)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -246,6 +252,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -290,7 +297,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -315,6 +322,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -330,13 +341,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2307,13 +2318,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2435,349 +2446,61 @@
       <c r="A6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>15452</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>15984</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>16724</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>615</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>60950</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>72920</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>70178</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>615</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>308</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>248</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>222</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>950</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1040</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1015</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>22947</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>22094</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>20697</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1106</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>118775</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>97921</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>102985</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1106</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>12795</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>12210</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>12872</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>231</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>55400</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>62492</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>60459</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>231</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>538</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>999</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1234</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>4075</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>6250</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>5809</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>925</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>448</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>404</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>13193</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>13513</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>13959</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>639</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>97900</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>73628</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>74420</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>639</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>13514</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>13055</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>12596</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>407</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>44775</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>58398</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>56597</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>407</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>155</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1450</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1561</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>1308</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -2812,7 +2535,664 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>4904</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1268</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>5328</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>345</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1844</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>563</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>3330</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>917</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>3686</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">SUM(B6:B13)</f>
+        <v>2647</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">SUM(C6:C13)</f>
+        <v>324</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">SUM(D6:D13)</f>
+        <v>108</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">SUM(E6:E13)</f>
+        <v>108</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">SUM(F6:F13)</f>
+        <v>12451</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">SUM(G6:G13)</f>
+        <v>540</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">SUM(H6:H13)</f>
+        <v>108</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">SUM(I6:I13)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">SUM(B14:B16)</f>
+        <v>1492</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">SUM(C14:C16)</f>
+        <v>222</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">SUM(D14:D16)</f>
+        <v>74</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">SUM(E14:E16)</f>
+        <v>74</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">SUM(F14:F16)</f>
+        <v>7069</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">SUM(G14:G16)</f>
+        <v>370</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">SUM(H14:H16)</f>
+        <v>74</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">SUM(I14:I16)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">SUM(B20:B21)*3*8</f>
+        <v>99336</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">SUM(C20:C21)*3*8</f>
+        <v>13104</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">SUM(D20:D21)*3*8</f>
+        <v>4368</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">SUM(E20:E21)*3*8</f>
+        <v>4368</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">SUM(F20:F21)*3*8</f>
+        <v>468480</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">SUM(G20:G21)*3*8</f>
+        <v>21840</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">SUM(H20:H21)*3*8</f>
+        <v>4368</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">SUM(I20:I21)*3*8</f>
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <f aca="false">$B$23/B23</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <f aca="false">$B$23/C23</f>
+        <v>7.58058608058608</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <f aca="false">$B$23/D23</f>
+        <v>22.7417582417582</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <f aca="false">$B$23/E23</f>
+        <v>22.7417582417582</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <f aca="false">$F$23/F23</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <f aca="false">$F$23/G23</f>
+        <v>21.4505494505494</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <f aca="false">$F$23/H23</f>
+        <v>107.252747252747</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <f aca="false">$F$23/I23</f>
+        <v>107.252747252747</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">(B20*5+B21)*B3</f>
+        <v>14727</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">(C20*5+C21)*C3</f>
+        <v>5526</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">(D20*5+D21)*D3</f>
+        <v>5526</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">(E20*5+E21)*E3</f>
+        <v>16578</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">(F20*5+F21)*F3</f>
+        <v>69324</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">(G20*5+G21)*G3</f>
+        <v>15350</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">(H20*5+H21)*H3</f>
+        <v>15350</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">(I20*5+I21)*I3</f>
+        <v>76750</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <f aca="false">B26/$B$26 - 1</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <f aca="false">C26/$B$26 - 1</f>
+        <v>-0.624770829089428</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <f aca="false">D26/$B$26 - 1</f>
+        <v>-0.624770829089428</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <f aca="false">E26/$B$26 - 1</f>
+        <v>0.125687512731717</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <f aca="false">F26/$F$26 - 1</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <f aca="false">G26/$F$26 - 1</f>
+        <v>-0.778575962148751</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <f aca="false">H26/$F$26 - 1</f>
+        <v>-0.778575962148751</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <f aca="false">I26/$F$26 - 1</f>
+        <v>0.107120189256246</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/netlists/results/sequentialResults.xlsx
+++ b/netlists/results/sequentialResults.xlsx
@@ -5,19 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="222" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="658" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sum" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="matrixmult_32bit" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="matrixmult_8bit" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="hamming" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="matrixmult_32bit" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="compare" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="mult" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="matrixmult_8bit" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="76">
   <si>
     <t>Sum (width/c)</t>
   </si>
@@ -106,6 +109,18 @@
     <t>128_128</t>
   </si>
   <si>
+    <t>PCF</t>
+  </si>
+  <si>
+    <t>1024-1</t>
+  </si>
+  <si>
+    <t>256-1</t>
+  </si>
+  <si>
+    <t>128-1</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
@@ -160,6 +175,21 @@
     <t>Sequential Time Overhead</t>
   </si>
   <si>
+    <t>Sequential storage efficiency (compare to PCF)</t>
+  </si>
+  <si>
+    <t>Sequential Time Overhead (compare to PCF)</t>
+  </si>
+  <si>
+    <t>160-1</t>
+  </si>
+  <si>
+    <t>1600-1</t>
+  </si>
+  <si>
+    <t>16000-1</t>
+  </si>
+  <si>
     <t>matrixmult 32bit (N, N^ clcok)</t>
   </si>
   <si>
@@ -209,6 +239,12 @@
   </si>
   <si>
     <t>16_3</t>
+  </si>
+  <si>
+    <t>compare (width_clock cycle)</t>
+  </si>
+  <si>
+    <t>mult (width_clock cycle)</t>
   </si>
   <si>
     <t>matrixmult 8bit (N, N^ clcok)</t>
@@ -344,16 +380,16 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="Z1:AD33 D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -444,10 +480,22 @@
       <c r="AC1" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -533,10 +581,19 @@
       <c r="AC3" s="0" t="n">
         <v>128</v>
       </c>
+      <c r="AE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
@@ -625,7 +682,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -714,7 +771,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2043</v>
@@ -803,7 +860,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2</v>
@@ -892,7 +949,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1019</v>
@@ -981,7 +1038,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1070,7 +1127,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1159,7 +1216,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1248,7 +1305,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1025</v>
@@ -1337,7 +1394,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1023</v>
@@ -1426,7 +1483,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1515,7 +1572,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1600,11 +1657,22 @@
       </c>
       <c r="AC17" s="0" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE18" s="0" t="n">
+        <v>11999</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>2951</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <v>1443</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">SUM(B6:B13)</f>
@@ -1718,10 +1786,22 @@
         <f aca="false">SUM(AC6:AC13)</f>
         <v>3</v>
       </c>
+      <c r="AE20" s="0" t="n">
+        <f aca="false">AE18-AE21</f>
+        <v>9022</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <f aca="false">AF18-AF21</f>
+        <v>2230</v>
+      </c>
+      <c r="AG20" s="0" t="n">
+        <f aca="false">AG18-AG21</f>
+        <v>1098</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">SUM(B14:B16)</f>
@@ -1835,10 +1915,19 @@
         <f aca="false">SUM(AC14:AC16)</f>
         <v>2</v>
       </c>
+      <c r="AE21" s="0" t="n">
+        <v>2977</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>721</v>
+      </c>
+      <c r="AG21" s="0" t="n">
+        <v>345</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">SUM(B20:B21)*3*8</f>
@@ -1952,10 +2041,22 @@
         <f aca="false">SUM(AC20:AC21)*3*8</f>
         <v>120</v>
       </c>
+      <c r="AE23" s="0" t="n">
+        <f aca="false">SUM(AE20:AE21)*3*8</f>
+        <v>287976</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <f aca="false">SUM(AF20:AF21)*3*8</f>
+        <v>70824</v>
+      </c>
+      <c r="AG23" s="0" t="n">
+        <f aca="false">SUM(AG20:AG21)*3*8</f>
+        <v>34632</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3" t="n">
         <f aca="false">$B$23/B23</f>
@@ -2072,7 +2173,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">(5*B20+B21)*B3</f>
@@ -2186,10 +2287,22 @@
         <f aca="false">(5*AC20+AC21)*AC3</f>
         <v>2176</v>
       </c>
-    </row>
-    <row r="27" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE26" s="0" t="n">
+        <f aca="false">(5*AE20+AE21)*AE3</f>
+        <v>48087</v>
+      </c>
+      <c r="AF26" s="0" t="n">
+        <f aca="false">(5*AF20+AF21)*AF3</f>
+        <v>11871</v>
+      </c>
+      <c r="AG26" s="0" t="n">
+        <f aca="false">(5*AG20+AG21)*AG3</f>
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B27" s="5" t="n">
         <f aca="false">B26/$B$26 -1</f>
@@ -2302,6 +2415,240 @@
       <c r="AC27" s="5" t="n">
         <f aca="false">AC26/$V$26 -1</f>
         <v>-0.0460324419114424</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <f aca="false">$AE$23/B23</f>
+        <v>2.34584555229716</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <f aca="false">$AG$23/C23</f>
+        <v>0.563012095200936</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <f aca="false">$AG$23/D23</f>
+        <v>1.12734375</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <f aca="false">$AG$23/E23</f>
+        <v>2.2546875</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <f aca="false">$AG$23/F23</f>
+        <v>4.509375</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <f aca="false">$AG$23/G23</f>
+        <v>9.01875</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <f aca="false">$AG$23/H23</f>
+        <v>18.0375</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <f aca="false">$AG$23/I23</f>
+        <v>36.075</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <f aca="false">$AG$23/J23</f>
+        <v>72.15</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <f aca="false">$AG$23/K23</f>
+        <v>144.3</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <f aca="false">$AG$23/L23</f>
+        <v>288.6</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <f aca="false">$AF$23/M23</f>
+        <v>1.9300196206671</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <f aca="false">$AF$23/N23</f>
+        <v>4.6109375</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <f aca="false">$AF$23/O23</f>
+        <v>9.221875</v>
+      </c>
+      <c r="P31" s="3" t="n">
+        <f aca="false">$AF$23/P23</f>
+        <v>18.44375</v>
+      </c>
+      <c r="Q31" s="3" t="n">
+        <f aca="false">$AF$23/Q23</f>
+        <v>36.8875</v>
+      </c>
+      <c r="R31" s="3" t="n">
+        <f aca="false">$AF$23/R23</f>
+        <v>73.775</v>
+      </c>
+      <c r="S31" s="3" t="n">
+        <f aca="false">$AF$23/S23</f>
+        <v>147.55</v>
+      </c>
+      <c r="T31" s="3" t="n">
+        <f aca="false">$AF$23/T23</f>
+        <v>295.1</v>
+      </c>
+      <c r="U31" s="3" t="n">
+        <f aca="false">$AF$23/U23</f>
+        <v>590.2</v>
+      </c>
+      <c r="V31" s="3" t="n">
+        <f aca="false">$AG$23/V23</f>
+        <v>1.89618922470434</v>
+      </c>
+      <c r="W31" s="3" t="n">
+        <f aca="false">$AG$23/W23</f>
+        <v>4.509375</v>
+      </c>
+      <c r="X31" s="3" t="n">
+        <f aca="false">$AG$23/X23</f>
+        <v>9.01875</v>
+      </c>
+      <c r="Y31" s="3" t="n">
+        <f aca="false">$AG$23/Y23</f>
+        <v>18.0375</v>
+      </c>
+      <c r="Z31" s="3" t="n">
+        <f aca="false">$AG$23/Z23</f>
+        <v>36.075</v>
+      </c>
+      <c r="AA31" s="3" t="n">
+        <f aca="false">$AG$23/AA23</f>
+        <v>72.15</v>
+      </c>
+      <c r="AB31" s="3" t="n">
+        <f aca="false">$AG$23/AB23</f>
+        <v>144.3</v>
+      </c>
+      <c r="AC31" s="3" t="n">
+        <f aca="false">$AG$23/AC23</f>
+        <v>288.6</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <f aca="false">B26/$AE$26 -1</f>
+        <v>-0.638509368436376</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <f aca="false">C26/$AE$26 -1</f>
+        <v>-0.637864703558134</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <f aca="false">D26/$AE$26 -1</f>
+        <v>-0.637989477405536</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <f aca="false">E26/$AE$26 -1</f>
+        <v>-0.637989477405536</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <f aca="false">F26/$AE$26 -1</f>
+        <v>-0.637989477405536</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <f aca="false">G26/$AE$26 -1</f>
+        <v>-0.637989477405536</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <f aca="false">H26/$AE$26 -1</f>
+        <v>-0.637989477405536</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <f aca="false">I26/$AE$26 -1</f>
+        <v>-0.637989477405536</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <f aca="false">J26/$AE$26 -1</f>
+        <v>-0.637989477405536</v>
+      </c>
+      <c r="K32" s="5" t="n">
+        <f aca="false">K26/$AE$26 -1</f>
+        <v>-0.637989477405536</v>
+      </c>
+      <c r="L32" s="5" t="n">
+        <f aca="false">L26/$AE$26 -1</f>
+        <v>-0.637989477405536</v>
+      </c>
+      <c r="M32" s="5" t="n">
+        <f aca="false">M26/$AF$26 -1</f>
+        <v>-0.61376463650914</v>
+      </c>
+      <c r="N32" s="5" t="n">
+        <f aca="false">N26/$AF$26 -1</f>
+        <v>-0.633392300564401</v>
+      </c>
+      <c r="O32" s="5" t="n">
+        <f aca="false">O26/$AF$26 -1</f>
+        <v>-0.633392300564401</v>
+      </c>
+      <c r="P32" s="5" t="n">
+        <f aca="false">P26/$AF$26 -1</f>
+        <v>-0.633392300564401</v>
+      </c>
+      <c r="Q32" s="5" t="n">
+        <f aca="false">Q26/$AF$26 -1</f>
+        <v>-0.633392300564401</v>
+      </c>
+      <c r="R32" s="5" t="n">
+        <f aca="false">R26/$AF$26 -1</f>
+        <v>-0.633392300564401</v>
+      </c>
+      <c r="S32" s="5" t="n">
+        <f aca="false">S26/$AF$26 -1</f>
+        <v>-0.633392300564401</v>
+      </c>
+      <c r="T32" s="5" t="n">
+        <f aca="false">T26/$AF$26 -1</f>
+        <v>-0.633392300564401</v>
+      </c>
+      <c r="U32" s="5" t="n">
+        <f aca="false">U26/$AF$26 -1</f>
+        <v>-0.633392300564401</v>
+      </c>
+      <c r="V32" s="5" t="n">
+        <f aca="false">V26/$AG$26 -1</f>
+        <v>-0.609083119108826</v>
+      </c>
+      <c r="W32" s="5" t="n">
+        <f aca="false">W26/$AG$26 -1</f>
+        <v>-0.627077977720651</v>
+      </c>
+      <c r="X32" s="5" t="n">
+        <f aca="false">X26/$AG$26 -1</f>
+        <v>-0.627077977720651</v>
+      </c>
+      <c r="Y32" s="5" t="n">
+        <f aca="false">Y26/$AG$26 -1</f>
+        <v>-0.627077977720651</v>
+      </c>
+      <c r="Z32" s="5" t="n">
+        <f aca="false">Z26/$AG$26 -1</f>
+        <v>-0.627077977720651</v>
+      </c>
+      <c r="AA32" s="5" t="n">
+        <f aca="false">AA26/$AG$26 -1</f>
+        <v>-0.627077977720651</v>
+      </c>
+      <c r="AB32" s="5" t="n">
+        <f aca="false">AB26/$AG$26 -1</f>
+        <v>-0.627077977720651</v>
+      </c>
+      <c r="AC32" s="5" t="n">
+        <f aca="false">AC26/$AG$26 -1</f>
+        <v>-0.627077977720651</v>
       </c>
     </row>
   </sheetData>
@@ -2321,74 +2668,2324 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S24" activeCellId="1" sqref="Z1:AD33 S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5714285714286"/>
+    <col collapsed="false" hidden="false" max="27" min="2" style="0" width="8.6734693877551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>1600</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>1600</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>1600</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16000</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>16000</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>16000</v>
+      </c>
+      <c r="U1" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="V1" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="W1" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="X1" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Y1" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Z1" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="AA1" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="AB1" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="AE1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="AF1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1600</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>3200</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>534</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>266</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>11977</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>7328</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>3003</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>1375</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>612</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>670</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1853</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1139</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>385</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>263</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>30676</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>11680</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>7663</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>2245</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>1698</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>984</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>382</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1817</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>717</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>529</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>17271</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>11308</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>4325</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>2228</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>680</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>4017</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>1009</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>1003</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>377</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>3222</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1447</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>638</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>387</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>261</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>39290</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>17657</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>9820</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>3189</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>1917</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>582</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1570</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>996</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>589</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>311</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>14018</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>9013</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>3516</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>2831</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>1154</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>470</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>4674</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>2340</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>1171</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD18" s="0" t="n">
+        <v>4368</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>32912</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>389312</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">SUM(B6:B13)</f>
+        <v>480</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">SUM(C6:C13)</f>
+        <v>250</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">SUM(D6:D13)</f>
+        <v>126</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">SUM(E6:E13)</f>
+        <v>66</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">SUM(F6:F13)</f>
+        <v>36</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">SUM(G6:G13)</f>
+        <v>21</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">SUM(H6:H13)</f>
+        <v>7</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">SUM(I6:I13)</f>
+        <v>4777</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">SUM(J6:J13)</f>
+        <v>2406</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">SUM(K6:K13)</f>
+        <v>1206</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">SUM(L6:L13)</f>
+        <v>628</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">SUM(M6:M13)</f>
+        <v>319</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">SUM(N6:N13)</f>
+        <v>159</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="false">SUM(O6:O13)</f>
+        <v>82</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">SUM(P6:P13)</f>
+        <v>24</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <f aca="false">SUM(Q6:Q13)</f>
+        <v>10</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <f aca="false">SUM(R6:R13)</f>
+        <v>63943</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <f aca="false">SUM(S6:S13)</f>
+        <v>31995</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <f aca="false">SUM(T6:T13)</f>
+        <v>15996</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <f aca="false">SUM(U6:U13)</f>
+        <v>6003</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <f aca="false">SUM(V6:V13)</f>
+        <v>3017</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <f aca="false">SUM(W6:W13)</f>
+        <v>1506</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <f aca="false">SUM(X6:X13)</f>
+        <v>795</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <f aca="false">SUM(Y6:Y13)</f>
+        <v>400</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <f aca="false">SUM(Z6:Z13)</f>
+        <v>85</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <f aca="false">SUM(AA6:AA13)</f>
+        <v>27</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <f aca="false">SUM(AB6:AB13)</f>
+        <v>13</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <f aca="false">AD18-AD21</f>
+        <v>3488</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <f aca="false">AE18-AE21</f>
+        <v>26537</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <f aca="false">AF18-AF21</f>
+        <v>292137</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">SUM(B14:B16)</f>
+        <v>551</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">SUM(C14:C16)</f>
+        <v>284</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">SUM(D14:D16)</f>
+        <v>141</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">SUM(E14:E16)</f>
+        <v>69</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">SUM(F14:F16)</f>
+        <v>36</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">SUM(G14:G16)</f>
+        <v>19</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">SUM(H14:H16)</f>
+        <v>9</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">SUM(I14:I16)</f>
+        <v>4801</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">SUM(J14:J16)</f>
+        <v>2450</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">SUM(K14:K16)</f>
+        <v>1232</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">SUM(L14:L16)</f>
+        <v>717</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <f aca="false">SUM(M14:M16)</f>
+        <v>357</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">SUM(N14:N16)</f>
+        <v>186</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <f aca="false">SUM(O14:O16)</f>
+        <v>94</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <f aca="false">SUM(P14:P16)</f>
+        <v>22</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <f aca="false">SUM(Q14:Q16)</f>
+        <v>12</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <f aca="false">SUM(R14:R16)</f>
+        <v>57982</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <f aca="false">SUM(S14:S16)</f>
+        <v>29010</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <f aca="false">SUM(T14:T16)</f>
+        <v>14507</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <f aca="false">SUM(U14:U16)</f>
+        <v>6022</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <f aca="false">SUM(V14:V16)</f>
+        <v>3092</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <f aca="false">SUM(W14:W16)</f>
+        <v>1523</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <f aca="false">SUM(X14:X16)</f>
+        <v>889</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <f aca="false">SUM(Y14:Y16)</f>
+        <v>439</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <f aca="false">SUM(Z14:Z16)</f>
+        <v>97</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <f aca="false">SUM(AA14:AA16)</f>
+        <v>25</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <f aca="false">SUM(AB14:AB16)</f>
+        <v>15</v>
+      </c>
+      <c r="AD21" s="0" t="n">
+        <v>880</v>
+      </c>
+      <c r="AE21" s="0" t="n">
+        <v>6375</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>97175</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">SUM(B20:B21)*3*8</f>
+        <v>24744</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">SUM(C20:C21)*3*8</f>
+        <v>12816</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">SUM(D20:D21)*3*8</f>
+        <v>6408</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">SUM(E20:E21)*3*8</f>
+        <v>3240</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">SUM(F20:F21)*3*8</f>
+        <v>1728</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">SUM(G20:G21)*3*8</f>
+        <v>960</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">SUM(H20:H21)*3*8</f>
+        <v>384</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">SUM(I20:I21)*3*8</f>
+        <v>229872</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">SUM(J20:J21)*3*8</f>
+        <v>116544</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">SUM(K20:K21)*3*8</f>
+        <v>58512</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">SUM(L20:L21)*3*8</f>
+        <v>32280</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">SUM(M20:M21)*3*8</f>
+        <v>16224</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">SUM(N20:N21)*3*8</f>
+        <v>8280</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <f aca="false">SUM(O20:O21)*3*8</f>
+        <v>4224</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <f aca="false">SUM(P20:P21)*3*8</f>
+        <v>1104</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <f aca="false">SUM(Q20:Q21)*3*8</f>
+        <v>528</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <f aca="false">SUM(R20:R21)*3*8</f>
+        <v>2926200</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <f aca="false">SUM(S20:S21)*3*8</f>
+        <v>1464120</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <f aca="false">SUM(T20:T21)*3*8</f>
+        <v>732072</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <f aca="false">SUM(U20:U21)*3*8</f>
+        <v>288600</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <f aca="false">SUM(V20:V21)*3*8</f>
+        <v>146616</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <f aca="false">SUM(W20:W21)*3*8</f>
+        <v>72696</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <f aca="false">SUM(X20:X21)*3*8</f>
+        <v>40416</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <f aca="false">SUM(Y20:Y21)*3*8</f>
+        <v>20136</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <f aca="false">SUM(Z20:Z21)*3*8</f>
+        <v>4368</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <f aca="false">SUM(AA20:AA21)*3*8</f>
+        <v>1248</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <f aca="false">SUM(AB20:AB21)*3*8</f>
+        <v>672</v>
+      </c>
+      <c r="AD23" s="0" t="n">
+        <f aca="false">SUM(AD20:AD21)*3*8</f>
+        <v>104832</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <f aca="false">SUM(AE20:AE21)*3*8</f>
+        <v>789888</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <f aca="false">SUM(AF20:AF21)*3*8</f>
+        <v>9343488</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <f aca="false">$B$23/B23</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <f aca="false">$B$23/C23</f>
+        <v>1.93071161048689</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <f aca="false">$B$23/D23</f>
+        <v>3.86142322097378</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <f aca="false">$B$23/E23</f>
+        <v>7.63703703703704</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <f aca="false">$B$23/F23</f>
+        <v>14.3194444444444</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <f aca="false">$B$23/G23</f>
+        <v>25.775</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <f aca="false">$B$23/H23</f>
+        <v>64.4375</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <f aca="false">$I$23/I23</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <f aca="false">$I$23/J23</f>
+        <v>1.97240527182867</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <f aca="false">$I$23/K23</f>
+        <v>3.92863002461034</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <f aca="false">$I$23/L23</f>
+        <v>7.12118959107807</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <f aca="false">$I$23/M23</f>
+        <v>14.1686390532544</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <f aca="false">$I$23/N23</f>
+        <v>27.7623188405797</v>
+      </c>
+      <c r="O24" s="3" t="n">
+        <f aca="false">$I$23/O23</f>
+        <v>54.4204545454546</v>
+      </c>
+      <c r="P24" s="3" t="n">
+        <f aca="false">$I$23/P23</f>
+        <v>208.217391304348</v>
+      </c>
+      <c r="Q24" s="3" t="n">
+        <f aca="false">$I$23/Q23</f>
+        <v>435.363636363636</v>
+      </c>
+      <c r="R24" s="4" t="n">
+        <f aca="false">$R$23/R23</f>
+        <v>1</v>
+      </c>
+      <c r="S24" s="4" t="n">
+        <f aca="false">$R$23/S23</f>
+        <v>1.9986066715843</v>
+      </c>
+      <c r="T24" s="4" t="n">
+        <f aca="false">$R$23/T23</f>
+        <v>3.99714782152575</v>
+      </c>
+      <c r="U24" s="4" t="n">
+        <f aca="false">$R$23/U23</f>
+        <v>10.1392931392931</v>
+      </c>
+      <c r="V24" s="4" t="n">
+        <f aca="false">$R$23/V23</f>
+        <v>19.9582583074153</v>
+      </c>
+      <c r="W24" s="4" t="n">
+        <f aca="false">$R$23/W23</f>
+        <v>40.2525586001981</v>
+      </c>
+      <c r="X24" s="4" t="n">
+        <f aca="false">$R$23/X23</f>
+        <v>72.4020190023753</v>
+      </c>
+      <c r="Y24" s="4" t="n">
+        <f aca="false">$R$23/Y23</f>
+        <v>145.321811680572</v>
+      </c>
+      <c r="Z24" s="4" t="n">
+        <f aca="false">$R$23/Z23</f>
+        <v>669.917582417582</v>
+      </c>
+      <c r="AA24" s="4" t="n">
+        <f aca="false">$R$23/AA23</f>
+        <v>2344.71153846154</v>
+      </c>
+      <c r="AB24" s="4" t="n">
+        <f aca="false">$R$23/AB23</f>
+        <v>4354.46428571429</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">(5*B20+B21)*B3</f>
+        <v>2951</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">(5*C20+C21)*C3</f>
+        <v>3068</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">(5*D20+D21)*D3</f>
+        <v>3084</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">(5*E20+E21)*E3</f>
+        <v>3192</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">(5*F20+F21)*F3</f>
+        <v>3456</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">(5*G20+G21)*G3</f>
+        <v>3968</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">(5*H20+H21)*H3</f>
+        <v>7040</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">(5*I20+I21)*I3</f>
+        <v>28686</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">(5*J20+J21)*J3</f>
+        <v>28960</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">(5*K20+K21)*K3</f>
+        <v>29048</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">(5*L20+L21)*L3</f>
+        <v>30856</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <f aca="false">(5*M20+M21)*M3</f>
+        <v>31232</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <f aca="false">(5*N20+N21)*N3</f>
+        <v>31392</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <f aca="false">(5*O20+O21)*O3</f>
+        <v>32256</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <f aca="false">(5*P20+P21)*P3</f>
+        <v>45440</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <f aca="false">(5*Q20+Q21)*Q3</f>
+        <v>99200</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <f aca="false">(5*R20+R21)*R3</f>
+        <v>377697</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <f aca="false">(5*S20+S21)*S3</f>
+        <v>377970</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <f aca="false">(5*T20+T21)*T3</f>
+        <v>377948</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <f aca="false">(5*U20+U21)*U3</f>
+        <v>288296</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <f aca="false">(5*V20+V21)*V3</f>
+        <v>290832</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <f aca="false">(5*W20+W21)*W3</f>
+        <v>289696</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <f aca="false">(5*X20+X21)*X3</f>
+        <v>311296</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <f aca="false">(5*Y20+Y21)*Y3</f>
+        <v>312192</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <f aca="false">(5*Z20+Z21)*Z3</f>
+        <v>334080</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <f aca="false">(5*AA20+AA21)*AA3</f>
+        <v>512000</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <f aca="false">(5*AB20+AB21)*AB3</f>
+        <v>1280000</v>
+      </c>
+      <c r="AD26" s="0" t="n">
+        <f aca="false">(5*AD20+AD21)*AD3</f>
+        <v>18320</v>
+      </c>
+      <c r="AE26" s="0" t="n">
+        <f aca="false">(5*AE20+AE21)*AE3</f>
+        <v>139060</v>
+      </c>
+      <c r="AF26" s="0" t="n">
+        <f aca="false">(5*AF20+AF21)*AF3</f>
+        <v>1557860</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <f aca="false">B26/$B$26 -1</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <f aca="false">C26/$B$26 -1</f>
+        <v>0.0396475770925111</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <f aca="false">D26/$B$26 -1</f>
+        <v>0.045069467976957</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <f aca="false">E26/$B$26 -1</f>
+        <v>0.0816672314469671</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <f aca="false">F26/$B$26 -1</f>
+        <v>0.171128431040325</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <f aca="false">G26/$B$26 -1</f>
+        <v>0.344628939342596</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <f aca="false">H26/$B$26 -1</f>
+        <v>1.38563198915622</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <f aca="false">I26/$I$26 -1</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <f aca="false">J26/$I$26 -1</f>
+        <v>0.00955169769225406</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <f aca="false">K26/$I$26 -1</f>
+        <v>0.0126193962211532</v>
+      </c>
+      <c r="L27" s="5" t="n">
+        <f aca="false">L26/$I$26 -1</f>
+        <v>0.0756466569058076</v>
+      </c>
+      <c r="M27" s="5" t="n">
+        <f aca="false">M26/$I$26 -1</f>
+        <v>0.0887540960747404</v>
+      </c>
+      <c r="N27" s="5" t="n">
+        <f aca="false">N26/$I$26 -1</f>
+        <v>0.0943317297636477</v>
+      </c>
+      <c r="O27" s="5" t="n">
+        <f aca="false">O26/$I$26 -1</f>
+        <v>0.124450951683748</v>
+      </c>
+      <c r="P27" s="5" t="n">
+        <f aca="false">P26/$I$26 -1</f>
+        <v>0.584047967649725</v>
+      </c>
+      <c r="Q27" s="5" t="n">
+        <f aca="false">Q26/$I$26 -1</f>
+        <v>2.45813288712264</v>
+      </c>
+      <c r="R27" s="5" t="n">
+        <f aca="false">R26/$R$26 -1</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="5" t="n">
+        <f aca="false">S26/$R$26 -1</f>
+        <v>0.000722801610814949</v>
+      </c>
+      <c r="T27" s="5" t="n">
+        <f aca="false">T26/$R$26 -1</f>
+        <v>0.000664553861958073</v>
+      </c>
+      <c r="U27" s="5" t="n">
+        <f aca="false">U26/$R$26 -1</f>
+        <v>-0.236700317979756</v>
+      </c>
+      <c r="V27" s="5" t="n">
+        <f aca="false">V26/$R$26 -1</f>
+        <v>-0.229985941111526</v>
+      </c>
+      <c r="W27" s="5" t="n">
+        <f aca="false">W26/$R$26 -1</f>
+        <v>-0.2329936430525</v>
+      </c>
+      <c r="X27" s="5" t="n">
+        <f aca="false">X26/$R$26 -1</f>
+        <v>-0.175804944174828</v>
+      </c>
+      <c r="Y27" s="5" t="n">
+        <f aca="false">Y26/$R$26 -1</f>
+        <v>-0.173432672221384</v>
+      </c>
+      <c r="Z27" s="5" t="n">
+        <f aca="false">Z26/$R$26 -1</f>
+        <v>-0.115481457358676</v>
+      </c>
+      <c r="AA27" s="5" t="n">
+        <f aca="false">AA26/$R$26 -1</f>
+        <v>0.355583973396665</v>
+      </c>
+      <c r="AB27" s="5" t="n">
+        <f aca="false">AB26/$R$26 -1</f>
+        <v>2.38895993349166</v>
+      </c>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <f aca="false">$AD$23/B23</f>
+        <v>4.23666343355965</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <f aca="false">$AD$23/C23</f>
+        <v>8.17977528089888</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <f aca="false">$AD$23/D23</f>
+        <v>16.3595505617978</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <f aca="false">$AD$23/E23</f>
+        <v>32.3555555555556</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <f aca="false">$AD$23/F23</f>
+        <v>60.6666666666667</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <f aca="false">$AD$23/G23</f>
+        <v>109.2</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <f aca="false">$AD$23/H23</f>
+        <v>273</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <f aca="false">$AE$23/I23</f>
+        <v>3.43620797661307</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <f aca="false">$AE$23/J23</f>
+        <v>6.77759472817133</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <f aca="false">$AE$23/K23</f>
+        <v>13.4995898277276</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <f aca="false">$AE$23/L23</f>
+        <v>24.4698884758364</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <f aca="false">$AE$23/M23</f>
+        <v>48.6863905325444</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <f aca="false">$AE$23/N23</f>
+        <v>95.3971014492754</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <f aca="false">$AE$23/O23</f>
+        <v>187</v>
+      </c>
+      <c r="P31" s="3" t="n">
+        <f aca="false">$AE$23/P23</f>
+        <v>715.478260869565</v>
+      </c>
+      <c r="Q31" s="3" t="n">
+        <f aca="false">$AE$23/Q23</f>
+        <v>1496</v>
+      </c>
+      <c r="R31" s="3" t="n">
+        <f aca="false">$AF$23/R23</f>
+        <v>3.1930449046545</v>
+      </c>
+      <c r="S31" s="3" t="n">
+        <f aca="false">$AF$23/S23</f>
+        <v>6.38164084911073</v>
+      </c>
+      <c r="T31" s="3" t="n">
+        <f aca="false">$AF$23/T23</f>
+        <v>12.7630724846736</v>
+      </c>
+      <c r="U31" s="3" t="n">
+        <f aca="false">$AF$23/U23</f>
+        <v>32.3752182952183</v>
+      </c>
+      <c r="V31" s="3" t="n">
+        <f aca="false">$AF$23/V23</f>
+        <v>63.7276149942707</v>
+      </c>
+      <c r="W31" s="3" t="n">
+        <f aca="false">$AF$23/W23</f>
+        <v>128.528227137669</v>
+      </c>
+      <c r="X31" s="3" t="n">
+        <f aca="false">$AF$23/X23</f>
+        <v>231.182897862233</v>
+      </c>
+      <c r="Y31" s="3" t="n">
+        <f aca="false">$AF$23/Y23</f>
+        <v>464.019070321812</v>
+      </c>
+      <c r="Z31" s="3" t="n">
+        <f aca="false">$AF$23/Z23</f>
+        <v>2139.07692307692</v>
+      </c>
+      <c r="AA31" s="3" t="n">
+        <f aca="false">$AF$23/AA23</f>
+        <v>7486.76923076923</v>
+      </c>
+      <c r="AB31" s="3" t="n">
+        <f aca="false">$AF$23/AB23</f>
+        <v>13904</v>
+      </c>
+      <c r="AC31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <f aca="false">B26/$AD$26 -1</f>
+        <v>-0.838919213973799</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <f aca="false">C26/$AD$26 -1</f>
+        <v>-0.832532751091703</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <f aca="false">D26/$AD$26 -1</f>
+        <v>-0.831659388646288</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <f aca="false">E26/$AD$26 -1</f>
+        <v>-0.825764192139738</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <f aca="false">F26/$AD$26 -1</f>
+        <v>-0.811353711790393</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <f aca="false">G26/$AD$26 -1</f>
+        <v>-0.783406113537118</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <f aca="false">H26/$AD$26 -1</f>
+        <v>-0.615720524017467</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <f aca="false">I26/$AE$26 -1</f>
+        <v>-0.79371494318999</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <f aca="false">J26/$AE$26 -1</f>
+        <v>-0.791744570688911</v>
+      </c>
+      <c r="K32" s="5" t="n">
+        <f aca="false">K26/$AE$26 -1</f>
+        <v>-0.791111750323601</v>
+      </c>
+      <c r="L32" s="5" t="n">
+        <f aca="false">L26/$AE$26 -1</f>
+        <v>-0.778110168272688</v>
+      </c>
+      <c r="M32" s="5" t="n">
+        <f aca="false">M26/$AE$26 -1</f>
+        <v>-0.775406299439091</v>
+      </c>
+      <c r="N32" s="5" t="n">
+        <f aca="false">N26/$AE$26 -1</f>
+        <v>-0.774255716956709</v>
+      </c>
+      <c r="O32" s="5" t="n">
+        <f aca="false">O26/$AE$26 -1</f>
+        <v>-0.768042571551848</v>
+      </c>
+      <c r="P32" s="5" t="n">
+        <f aca="false">P26/$AE$26 -1</f>
+        <v>-0.673234575003596</v>
+      </c>
+      <c r="Q32" s="5" t="n">
+        <f aca="false">Q26/$AE$26 -1</f>
+        <v>-0.286638860923342</v>
+      </c>
+      <c r="R32" s="5" t="n">
+        <f aca="false">R26/$AF$26 -1</f>
+        <v>-0.757553952216502</v>
+      </c>
+      <c r="S32" s="5" t="n">
+        <f aca="false">S26/$AF$26 -1</f>
+        <v>-0.757378711822629</v>
+      </c>
+      <c r="T32" s="5" t="n">
+        <f aca="false">T26/$AF$26 -1</f>
+        <v>-0.757392833759131</v>
+      </c>
+      <c r="U32" s="5" t="n">
+        <f aca="false">U26/$AF$26 -1</f>
+        <v>-0.814941008819791</v>
+      </c>
+      <c r="V32" s="5" t="n">
+        <f aca="false">V26/$AF$26 -1</f>
+        <v>-0.81331313468476</v>
+      </c>
+      <c r="W32" s="5" t="n">
+        <f aca="false">W26/$AF$26 -1</f>
+        <v>-0.81404234013326</v>
+      </c>
+      <c r="X32" s="5" t="n">
+        <f aca="false">X26/$AF$26 -1</f>
+        <v>-0.800177166112488</v>
+      </c>
+      <c r="Y32" s="5" t="n">
+        <f aca="false">Y26/$AF$26 -1</f>
+        <v>-0.799602018153107</v>
+      </c>
+      <c r="Z32" s="5" t="n">
+        <f aca="false">Z26/$AF$26 -1</f>
+        <v>-0.785551975145392</v>
+      </c>
+      <c r="AA32" s="5" t="n">
+        <f aca="false">AA26/$AF$26 -1</f>
+        <v>-0.671344023211328</v>
+      </c>
+      <c r="AB32" s="5" t="n">
+        <f aca="false">AB26/$AF$26 -1</f>
+        <v>-0.178360058028321</v>
+      </c>
+      <c r="AC32" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AC45"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="1" sqref="Z1:AD33 B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="S1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="U1" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V1" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -2441,97 +5038,1241 @@
         <f aca="false">16*16*16</f>
         <v>4096</v>
       </c>
-    </row>
+      <c r="S3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>15452</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1835</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>615</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>615</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>60950</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>3142</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>3142</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>615</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>5045</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>615</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>615</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>10011</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>615</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>615</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>308</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>393</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>22947</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2654</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1106</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1106</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>118775</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>4512</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>4512</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1106</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>8309</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1106</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1106</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>16649</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1106</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>1106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>12795</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1246</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>55400</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>2132</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>4358</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>538</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>4075</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>363</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>925</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>13193</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1537</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>639</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>639</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>97900</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2599</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>2599</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>639</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>4898</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>639</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>639</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>9736</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>639</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>13514</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1588</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>44775</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>2598</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>2598</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>3420</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>6910</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>407</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>281</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
+        <v>45</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S18" s="0" t="n">
+        <v>105880</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>423064</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>1659808</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>25592368</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">SUM(B6:B13)</f>
+        <v>52088</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">SUM(C6:C13)</f>
+        <v>5960</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">SUM(D6:D13)</f>
+        <v>1990</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">SUM(E6:E13)</f>
+        <v>1990</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">SUM(F6:F13)</f>
+        <v>241075</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">SUM(G6:G13)</f>
+        <v>9966</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">SUM(H6:H13)</f>
+        <v>9966</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">SUM(I6:I13)</f>
+        <v>1990</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">SUM(J6:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">SUM(K6:K13)</f>
+        <v>15941</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">SUM(L6:L13)</f>
+        <v>1990</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">SUM(M6:M13)</f>
+        <v>1990</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">SUM(N6:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="false">SUM(O6:O13)</f>
+        <v>31866</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">SUM(P6:P13)</f>
+        <v>1990</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <f aca="false">SUM(Q6:Q13)</f>
+        <v>1990</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <f aca="false">S18-S21</f>
+        <v>81114</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <f aca="false">T18-T21</f>
+        <v>322814</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <f aca="false">U18-U21</f>
+        <v>1259598</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <f aca="false">V18-V21</f>
+        <v>19220622</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
+        <v>42</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">SUM(B14:B16)</f>
+        <v>26862</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">SUM(C14:C16)</f>
+        <v>3174</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">SUM(D14:D16)</f>
+        <v>1056</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">SUM(E14:E16)</f>
+        <v>1056</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">SUM(F14:F16)</f>
+        <v>144125</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">SUM(G14:G16)</f>
+        <v>5279</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">SUM(H14:H16)</f>
+        <v>5279</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">SUM(I14:I16)</f>
+        <v>1056</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">SUM(J14:J16)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">SUM(K14:K16)</f>
+        <v>8475</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">SUM(L14:L16)</f>
+        <v>1056</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <f aca="false">SUM(M14:M16)</f>
+        <v>1056</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">SUM(N14:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <f aca="false">SUM(O14:O16)</f>
+        <v>16927</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <f aca="false">SUM(P14:P16)</f>
+        <v>1056</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <f aca="false">SUM(Q14:Q16)</f>
+        <v>1056</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>24766</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>100250</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>400210</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>6371746</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">SUM(B20:B21)*3*8</f>
+        <v>1894800</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">SUM(C20:C21)*3*8</f>
+        <v>219216</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">SUM(D20:D21)*3*8</f>
+        <v>73104</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">SUM(E20:E21)*3*8</f>
+        <v>73104</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">SUM(F20:F21)*3*8</f>
+        <v>9244800</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">SUM(G20:G21)*3*8</f>
+        <v>365880</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">SUM(H20:H21)*3*8</f>
+        <v>365880</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">SUM(I20:I21)*3*8</f>
+        <v>73104</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">SUM(J20:J21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">SUM(K20:K21)*3*8</f>
+        <v>585984</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">SUM(L20:L21)*3*8</f>
+        <v>73104</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">SUM(M20:M21)*3*8</f>
+        <v>73104</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">SUM(N20:N21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <f aca="false">SUM(O20:O21)*3*8</f>
+        <v>1171032</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <f aca="false">SUM(P20:P21)*3*8</f>
+        <v>73104</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <f aca="false">SUM(Q20:Q21)*3*8</f>
+        <v>73104</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <f aca="false">SUM(S20:S21)*3*8</f>
+        <v>2541120</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <f aca="false">SUM(T20:T21)*3*8</f>
+        <v>10153536</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <f aca="false">SUM(U20:U21)*3*8</f>
+        <v>39835392</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <f aca="false">SUM(V20:V21)*3*8</f>
+        <v>614216832</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <f aca="false">$B$23/B23</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <f aca="false">$B$23/C23</f>
+        <v>8.6435296693672</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <f aca="false">$B$23/D23</f>
+        <v>25.919238345371</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <f aca="false">$B$23/E23</f>
+        <v>25.919238345371</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <f aca="false">$B$23/F23</f>
+        <v>0.204958463136033</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <f aca="false">$B$23/G23</f>
+        <v>5.17874713020663</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <f aca="false">$B$23/H23</f>
+        <v>5.17874713020663</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <f aca="false">$B$23/I23</f>
+        <v>25.919238345371</v>
+      </c>
+      <c r="J24" s="4" t="e">
+        <f aca="false">$J$23/J23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="4" t="n">
+        <f aca="false">$J$23/K23</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="4" t="n">
+        <f aca="false">$J$23/L23</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4" t="n">
+        <f aca="false">$J$23/M23</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="4" t="e">
+        <f aca="false">$N$23/N23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="4" t="n">
+        <f aca="false">$N$23/O23</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="4" t="n">
+        <f aca="false">$N$23/P23</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4" t="n">
+        <f aca="false">$N$23/Q23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">(B20*5+B21)*B3</f>
+        <v>287302</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">(C20*5+C21)*C3</f>
+        <v>98922</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">(D20*5+D21)*D3</f>
+        <v>99054</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">(E20*5+E21)*E3</f>
+        <v>297162</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">(F20*5+F21)*F3</f>
+        <v>1349500</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">(G20*5+G21)*G3</f>
+        <v>275545</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">(H20*5+H21)*H3</f>
+        <v>1377725</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">(I20*5+I21)*I3</f>
+        <v>1375750</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">(J20*5+J21)*J3</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">(K20*5+K21)*K3</f>
+        <v>705440</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">(L20*5+L21)*L3</f>
+        <v>704384</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <f aca="false">(M20*5+M21)*M3</f>
+        <v>5635072</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <f aca="false">(N20*5+N21)*N3</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <f aca="false">(O20*5+O21)*O3</f>
+        <v>2820112</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <f aca="false">(P20*5+P21)*P3</f>
+        <v>2817536</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <f aca="false">(Q20*5+Q21)*Q3</f>
+        <v>45080576</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <f aca="false">(5*S20+S21)*S3</f>
+        <v>430336</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <f aca="false">(5*T20+T21)*T3</f>
+        <v>1714320</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <f aca="false">(5*U20+U21)*U3</f>
+        <v>6698200</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <f aca="false">(5*V20+V21)*V3</f>
+        <v>102474856</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
+        <v>50</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <f aca="false">B26/$B$26 - 1</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <f aca="false">C26/$B$26 - 1</f>
+        <v>-0.655686350947783</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <f aca="false">D26/$B$26 - 1</f>
+        <v>-0.65522690409395</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <f aca="false">E26/$B$26 - 1</f>
+        <v>0.0343192877181502</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <f aca="false">F26/$F$26 - 1</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <f aca="false">G26/$B$26 - 1</f>
+        <v>-0.0409220959130114</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <f aca="false">H26/$B$26 - 1</f>
+        <v>3.79538952043494</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <f aca="false">I26/$B$26 - 1</f>
+        <v>3.78851522091736</v>
+      </c>
+      <c r="J27" s="6" t="n">
+        <f aca="false">J26/$B$26 - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="K27" s="6" t="n">
+        <f aca="false">K26/$B$26 - 1</f>
+        <v>1.45539536794036</v>
+      </c>
+      <c r="L27" s="6" t="n">
+        <f aca="false">L26/$B$26 - 1</f>
+        <v>1.45171979310969</v>
+      </c>
+      <c r="M27" s="6" t="n">
+        <f aca="false">M26/$B$26 - 1</f>
+        <v>18.6137583448775</v>
+      </c>
+      <c r="N27" s="6" t="n">
+        <f aca="false">N26/$B$26 - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O27" s="6" t="n">
+        <f aca="false">O26/$B$26 - 1</f>
+        <v>8.81584534740447</v>
+      </c>
+      <c r="P27" s="6" t="n">
+        <f aca="false">P26/$B$26 - 1</f>
+        <v>8.80687917243876</v>
+      </c>
+      <c r="Q27" s="6" t="n">
+        <f aca="false">Q26/$B$26 - 1</f>
+        <v>155.91006675902</v>
+      </c>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <f aca="false">$S$23/B23</f>
+        <v>1.34110196326789</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <f aca="false">$S$23/C23</f>
+        <v>11.5918546091526</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <f aca="false">$S$23/D23</f>
+        <v>34.7603414313854</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <f aca="false">$S$23/E23</f>
+        <v>34.7603414313854</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <f aca="false">$T$23/F23</f>
+        <v>1.09829698857736</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <f aca="false">$T$23/G23</f>
+        <v>27.7510003279764</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <f aca="false">$T$23/H23</f>
+        <v>27.7510003279764</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <f aca="false">$T$23/I23</f>
+        <v>138.89166119501</v>
+      </c>
+      <c r="J31" s="3" t="e">
+        <f aca="false">$U$23/J23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <f aca="false">$U$23/K23</f>
+        <v>67.9803407601573</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <f aca="false">$U$23/L23</f>
+        <v>544.913985554826</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <f aca="false">$U$23/M23</f>
+        <v>544.913985554826</v>
+      </c>
+      <c r="N31" s="3" t="e">
+        <f aca="false">$V$23/N23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <f aca="false">$V$23/O23</f>
+        <v>524.509007439592</v>
+      </c>
+      <c r="P31" s="3" t="n">
+        <f aca="false">$V$23/P23</f>
+        <v>8401.95929087328</v>
+      </c>
+      <c r="Q31" s="3" t="n">
+        <f aca="false">$V$23/Q23</f>
+        <v>8401.95929087328</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <f aca="false">B26/$S$26 -1</f>
+        <v>-0.33237749107674</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <f aca="false">C26/$S$26 -1</f>
+        <v>-0.770128457763236</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <f aca="false">D26/$S$26 -1</f>
+        <v>-0.769821720701963</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <f aca="false">E26/$S$26 -1</f>
+        <v>-0.309465162105889</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <f aca="false">F26/$T$26 -1</f>
+        <v>-0.212807410518456</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <f aca="false">G26/$T$26 -1</f>
+        <v>-0.839268631294041</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <f aca="false">H26/$T$26 -1</f>
+        <v>-0.196343156470204</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <f aca="false">I26/$T$26 -1</f>
+        <v>-0.197495216762331</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <f aca="false">J26/$U$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="K32" s="5" t="n">
+        <f aca="false">K26/$U$26 -1</f>
+        <v>-0.89468215341435</v>
+      </c>
+      <c r="L32" s="5" t="n">
+        <f aca="false">L26/$U$26 -1</f>
+        <v>-0.894839807709534</v>
+      </c>
+      <c r="M32" s="5" t="n">
+        <f aca="false">M26/$U$26 -1</f>
+        <v>-0.158718461676271</v>
+      </c>
+      <c r="N32" s="5" t="n">
+        <f aca="false">N26/$V$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="O32" s="5" t="n">
+        <f aca="false">O26/$V$26 -1</f>
+        <v>-0.97247996132827</v>
+      </c>
+      <c r="P32" s="5" t="n">
+        <f aca="false">P26/$V$26 -1</f>
+        <v>-0.972505099202091</v>
+      </c>
+      <c r="Q32" s="5" t="n">
+        <f aca="false">Q26/$V$26 -1</f>
+        <v>-0.560081587233457</v>
+      </c>
+      <c r="R32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2543,56 +6284,2404 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AC32"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M40" activeCellId="1" sqref="Z1:AD33 M40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.780612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="0" t="n">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>2048</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">2*M3</f>
+        <v>4096</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">2*N3</f>
+        <v>8192</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">2*O3</f>
+        <v>16384</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2427</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1109</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>691</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>258</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2524</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1167</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2894</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1420</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>422</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>5166</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2544</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1169</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>392</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>327</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>377</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R18" s="0" t="n">
+        <v>97733</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">SUM(B6:B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">SUM(C6:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">SUM(D6:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">SUM(E6:E13)</f>
+        <v>14388</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">SUM(F6:F13)</f>
+        <v>7129</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">SUM(G6:G13)</f>
+        <v>2593</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">SUM(H6:H13)</f>
+        <v>1155</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">SUM(I6:I13)</f>
+        <v>579</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">SUM(J6:J13)</f>
+        <v>291</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">SUM(K6:K13)</f>
+        <v>147</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">SUM(L6:L13)</f>
+        <v>75</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">SUM(M6:M13)</f>
+        <v>37</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">SUM(N6:N13)</f>
+        <v>19</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="false">SUM(O6:O13)</f>
+        <v>14</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">SUM(P6:P13)</f>
+        <v>7</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <f aca="false">R18-R21</f>
+        <v>94504</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">SUM(B14:B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">SUM(C14:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">SUM(D14:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">SUM(E14:E16)</f>
+        <v>314</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">SUM(F14:F16)</f>
+        <v>208</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">SUM(G14:G16)</f>
+        <v>14</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">SUM(H14:H16)</f>
+        <v>137</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">SUM(I14:I16)</f>
+        <v>68</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">SUM(J14:J16)</f>
+        <v>35</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">SUM(K14:K16)</f>
+        <v>19</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">SUM(L14:L16)</f>
+        <v>11</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <f aca="false">SUM(M14:M16)</f>
+        <v>7</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">SUM(N14:N16)</f>
+        <v>6</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <f aca="false">SUM(O14:O16)</f>
+        <v>3</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <f aca="false">SUM(P14:P16)</f>
+        <v>2</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">SUM(B20:B21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">SUM(C20:C21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">SUM(D20:D21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">SUM(E20:E21)*3*8</f>
+        <v>352848</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">SUM(F20:F21)*3*8</f>
+        <v>176088</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">SUM(G20:G21)*3*8</f>
+        <v>62568</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">SUM(H20:H21)*3*8</f>
+        <v>31008</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">SUM(I20:I21)*3*8</f>
+        <v>15528</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">SUM(J20:J21)*3*8</f>
+        <v>7824</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">SUM(K20:K21)*3*8</f>
+        <v>3984</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">SUM(L20:L21)*3*8</f>
+        <v>2064</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">SUM(M20:M21)*3*8</f>
+        <v>1056</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">SUM(N20:N21)*3*8</f>
+        <v>600</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <f aca="false">SUM(O20:O21)*3*8</f>
+        <v>408</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <f aca="false">SUM(P20:P21)*3*8</f>
+        <v>216</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <f aca="false">SUM(R20:R21)*3*8</f>
+        <v>2345592</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="4" t="e">
+        <f aca="false">$B$23/B23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" s="4" t="e">
+        <f aca="false">$B$23/C23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="4" t="e">
+        <f aca="false">$B$23/D23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <f aca="false">$B$23/E23</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <f aca="false">$B$23/F23</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <f aca="false">$B$23/G23</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <f aca="false">$B$23/H23</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <f aca="false">$B$23/I23</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <f aca="false">$B$23/J23</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4" t="n">
+        <f aca="false">$B$23/K23</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="4" t="n">
+        <f aca="false">$B$23/L23</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4" t="n">
+        <f aca="false">$B$23/M23</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="4" t="n">
+        <f aca="false">$B$23/N23</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="4" t="n">
+        <f aca="false">$B$23/O23</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="4" t="n">
+        <f aca="false">$B$23/P23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">(B20*5+B21)*B3</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">(C20*5+C21)*C3</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">(D20*5+D21)*D3</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">(E20*5+E21)*E3</f>
+        <v>578032</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">(F20*5+F21)*F3</f>
+        <v>573648</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">(G20*5+G21)*G3</f>
+        <v>415328</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">(H20*5+H21)*H3</f>
+        <v>378368</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">(I20*5+I21)*I3</f>
+        <v>379264</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">(J20*5+J21)*J3</f>
+        <v>381440</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">(K20*5+K21)*K3</f>
+        <v>386048</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">(L20*5+L21)*L3</f>
+        <v>395264</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <f aca="false">(M20*5+M21)*M3</f>
+        <v>393216</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <f aca="false">(N20*5+N21)*N3</f>
+        <v>413696</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <f aca="false">(O20*5+O21)*O3</f>
+        <v>598016</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <f aca="false">(P20*5+P21)*P3</f>
+        <v>606208</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <f aca="false">(5*R20+R21)*R3</f>
+        <v>475749</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="6" t="e">
+        <f aca="false">B26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27" s="6" t="e">
+        <f aca="false">C26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="6" t="e">
+        <f aca="false">D26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="6" t="e">
+        <f aca="false">E26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="6" t="e">
+        <f aca="false">F26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="6" t="e">
+        <f aca="false">G26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="6" t="e">
+        <f aca="false">H26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="6" t="e">
+        <f aca="false">I26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="6" t="e">
+        <f aca="false">J26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="6" t="e">
+        <f aca="false">K26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="6" t="e">
+        <f aca="false">L26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="6" t="e">
+        <f aca="false">M26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="6" t="e">
+        <f aca="false">N26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="6" t="e">
+        <f aca="false">O26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="6" t="e">
+        <f aca="false">P26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="3" t="e">
+        <f aca="false">$R$23/B23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C31" s="3" t="e">
+        <f aca="false">$R$23/C23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="3" t="e">
+        <f aca="false">$R$23/D23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <f aca="false">$R$23/E23</f>
+        <v>6.64759896612706</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <f aca="false">$R$23/F23</f>
+        <v>13.3205669892327</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <f aca="false">$R$23/G23</f>
+        <v>37.4886843114691</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <f aca="false">$R$23/H23</f>
+        <v>75.6447368421053</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <f aca="false">$R$23/I23</f>
+        <v>151.055641421947</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <f aca="false">$R$23/J23</f>
+        <v>299.794478527607</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <f aca="false">$R$23/K23</f>
+        <v>588.753012048193</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <f aca="false">$R$23/L23</f>
+        <v>1136.43023255814</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <f aca="false">$R$23/M23</f>
+        <v>2221.20454545455</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <f aca="false">$R$23/N23</f>
+        <v>3909.32</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <f aca="false">$R$23/O23</f>
+        <v>5749</v>
+      </c>
+      <c r="P31" s="3" t="n">
+        <f aca="false">$R$23/P23</f>
+        <v>10859.2222222222</v>
+      </c>
+      <c r="Q31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <f aca="false">B26/$R$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <f aca="false">C26/$R$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <f aca="false">D26/$R$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <f aca="false">E26/$R$26 -1</f>
+        <v>0.214993620585645</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <f aca="false">F26/$R$26 -1</f>
+        <v>0.205778677411828</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <f aca="false">G26/$R$26 -1</f>
+        <v>-0.127001843409025</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <f aca="false">H26/$R$26 -1</f>
+        <v>-0.204689867976601</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <f aca="false">I26/$R$26 -1</f>
+        <v>-0.202806521926478</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <f aca="false">J26/$R$26 -1</f>
+        <v>-0.198232681519036</v>
+      </c>
+      <c r="K32" s="5" t="n">
+        <f aca="false">K26/$R$26 -1</f>
+        <v>-0.188546901832689</v>
+      </c>
+      <c r="L32" s="5" t="n">
+        <f aca="false">L26/$R$26 -1</f>
+        <v>-0.169175342459995</v>
+      </c>
+      <c r="M32" s="5" t="n">
+        <f aca="false">M26/$R$26 -1</f>
+        <v>-0.173480133431705</v>
+      </c>
+      <c r="N32" s="5" t="n">
+        <f aca="false">N26/$R$26 -1</f>
+        <v>-0.130432223714606</v>
+      </c>
+      <c r="O32" s="5" t="n">
+        <f aca="false">O26/$R$26 -1</f>
+        <v>0.256998963739283</v>
+      </c>
+      <c r="P32" s="5" t="n">
+        <f aca="false">P26/$R$26 -1</f>
+        <v>0.274218127626122</v>
+      </c>
+      <c r="Q32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1:AD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>55</v>
+      <c r="C1" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="R1" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="S1" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="T1" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="U1" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="V1" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="W1" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="X1" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="Y1" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC1" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA18" s="0" t="n">
+        <v>105880</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>423064</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>1659808</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <v>25592368</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">SUM(B6:B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">SUM(C6:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">SUM(D6:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">SUM(E6:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">SUM(F6:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">SUM(G6:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">SUM(H6:H13)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">SUM(I6:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">SUM(J6:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">SUM(K6:K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">SUM(L6:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">SUM(M6:M13)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">SUM(N6:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="false">SUM(O6:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">SUM(P6:P13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <f aca="false">SUM(Q6:Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <f aca="false">SUM(R6:R13)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <f aca="false">SUM(S6:S13)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <f aca="false">SUM(T6:T13)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <f aca="false">SUM(U6:U13)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <f aca="false">SUM(V6:V13)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <f aca="false">SUM(W6:W13)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <f aca="false">SUM(X6:X13)</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <f aca="false">SUM(Y6:Y13)</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <f aca="false">AA18-AA21</f>
+        <v>81114</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <f aca="false">AB18-AB21</f>
+        <v>322814</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <f aca="false">AC18-AC21</f>
+        <v>1259598</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <f aca="false">AD18-AD21</f>
+        <v>19220622</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">SUM(B14:B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">SUM(C14:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">SUM(D14:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">SUM(E14:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">SUM(F14:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">SUM(G14:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">SUM(H14:H16)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">SUM(I14:I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">SUM(J14:J16)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">SUM(K14:K16)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">SUM(L14:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <f aca="false">SUM(M14:M16)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">SUM(N14:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <f aca="false">SUM(O14:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <f aca="false">SUM(P14:P16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <f aca="false">SUM(Q14:Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <f aca="false">SUM(R14:R16)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <f aca="false">SUM(S14:S16)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <f aca="false">SUM(T14:T16)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <f aca="false">SUM(U14:U16)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <f aca="false">SUM(V14:V16)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <f aca="false">SUM(W14:W16)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <f aca="false">SUM(X14:X16)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <f aca="false">SUM(Y14:Y16)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>24766</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <v>100250</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>400210</v>
+      </c>
+      <c r="AD21" s="0" t="n">
+        <v>6371746</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">SUM(B20:B21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">SUM(C20:C21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">SUM(D20:D21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">SUM(E20:E21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">SUM(F20:F21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">SUM(G20:G21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">SUM(H20:H21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">SUM(I20:I21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">SUM(J20:J21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">SUM(K20:K21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">SUM(L20:L21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">SUM(M20:M21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">SUM(N20:N21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <f aca="false">SUM(O20:O21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <f aca="false">SUM(P20:P21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <f aca="false">SUM(Q20:Q21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <f aca="false">SUM(R20:R21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <f aca="false">SUM(S20:S21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <f aca="false">SUM(T20:T21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <f aca="false">SUM(U20:U21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <f aca="false">SUM(V20:V21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <f aca="false">SUM(W20:W21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <f aca="false">SUM(X20:X21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <f aca="false">SUM(Y20:Y21)*3*8</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <f aca="false">SUM(AA20:AA21)*3*8</f>
+        <v>2541120</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <f aca="false">SUM(AB20:AB21)*3*8</f>
+        <v>10153536</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <f aca="false">SUM(AC20:AC21)*3*8</f>
+        <v>39835392</v>
+      </c>
+      <c r="AD23" s="0" t="n">
+        <f aca="false">SUM(AD20:AD21)*3*8</f>
+        <v>614216832</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="4" t="e">
+        <f aca="false">$B$23/B23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" s="4" t="e">
+        <f aca="false">$B$23/C23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="4" t="e">
+        <f aca="false">$B$23/D23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="4" t="e">
+        <f aca="false">$B$23/E23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="4" t="e">
+        <f aca="false">$B$23/F23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="4" t="e">
+        <f aca="false">$B$23/G23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="4" t="e">
+        <f aca="false">$B$23/H23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="4" t="e">
+        <f aca="false">$B$23/I23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="4" t="e">
+        <f aca="false">$J$23/J23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="4" t="e">
+        <f aca="false">$J$23/K23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="4" t="e">
+        <f aca="false">$J$23/L23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="4" t="e">
+        <f aca="false">$J$23/M23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="4" t="e">
+        <f aca="false">$N$23/N23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="4" t="e">
+        <f aca="false">$N$23/O23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" s="4" t="e">
+        <f aca="false">$N$23/P23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" s="4" t="e">
+        <f aca="false">$N$23/Q23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" s="4" t="e">
+        <f aca="false">$N$23/R23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" s="4" t="e">
+        <f aca="false">$N$23/S23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="4" t="e">
+        <f aca="false">$N$23/T23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" s="4" t="e">
+        <f aca="false">$N$23/U23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" s="4" t="e">
+        <f aca="false">$N$23/V23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" s="4" t="e">
+        <f aca="false">$N$23/W23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X24" s="4" t="e">
+        <f aca="false">$N$23/X23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y24" s="4" t="e">
+        <f aca="false">$N$23/Y23</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">(B20*5+B21)*B3</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">(C20*5+C21)*C3</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">(D20*5+D21)*D3</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">(E20*5+E21)*E3</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">(F20*5+F21)*F3</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">(G20*5+G21)*G3</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">(H20*5+H21)*H3</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">(I20*5+I21)*I3</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">(J20*5+J21)*J3</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">(K20*5+K21)*K3</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">(L20*5+L21)*L3</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <f aca="false">(M20*5+M21)*M3</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <f aca="false">(N20*5+N21)*N3</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <f aca="false">(O20*5+O21)*O3</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <f aca="false">(P20*5+P21)*P3</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <f aca="false">(Q20*5+Q21)*Q3</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <f aca="false">(R20*5+R21)*R3</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <f aca="false">(S20*5+S21)*S3</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <f aca="false">(T20*5+T21)*T3</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <f aca="false">(U20*5+U21)*U3</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <f aca="false">(V20*5+V21)*V3</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <f aca="false">(W20*5+W21)*W3</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <f aca="false">(X20*5+X21)*X3</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <f aca="false">(Y20*5+Y21)*Y3</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <f aca="false">(5*AA20+AA21)*AA3</f>
+        <v>430336</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <f aca="false">(5*AB20+AB21)*AB3</f>
+        <v>1714320</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <f aca="false">(5*AC20+AC21)*AC3</f>
+        <v>6698200</v>
+      </c>
+      <c r="AD26" s="0" t="n">
+        <f aca="false">(5*AD20+AD21)*AD3</f>
+        <v>102474856</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="6" t="e">
+        <f aca="false">B26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27" s="6" t="e">
+        <f aca="false">C26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="6" t="e">
+        <f aca="false">D26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="6" t="e">
+        <f aca="false">E26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="6" t="e">
+        <f aca="false">F26/$F$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="6" t="e">
+        <f aca="false">G26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="6" t="e">
+        <f aca="false">H26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="6" t="e">
+        <f aca="false">I26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="6" t="e">
+        <f aca="false">J26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="6" t="e">
+        <f aca="false">K26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="6" t="e">
+        <f aca="false">L26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="6" t="e">
+        <f aca="false">M26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="6" t="e">
+        <f aca="false">N26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="6" t="e">
+        <f aca="false">O26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="6" t="e">
+        <f aca="false">P26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="6" t="e">
+        <f aca="false">Q26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="6" t="e">
+        <f aca="false">R26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="6" t="e">
+        <f aca="false">S26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="6" t="e">
+        <f aca="false">T26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" s="6" t="e">
+        <f aca="false">U26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" s="6" t="e">
+        <f aca="false">V26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" s="6" t="e">
+        <f aca="false">W26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X27" s="6" t="e">
+        <f aca="false">X26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y27" s="6" t="e">
+        <f aca="false">Y26/$B$26 - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="3" t="e">
+        <f aca="false">$AA$23/B23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C31" s="3" t="e">
+        <f aca="false">$AA$23/C23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="3" t="e">
+        <f aca="false">$AA$23/D23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="3" t="e">
+        <f aca="false">$AA$23/E23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="3" t="e">
+        <f aca="false">$AB$23/F23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="3" t="e">
+        <f aca="false">$AB$23/G23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="3" t="e">
+        <f aca="false">$AB$23/H23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="3" t="e">
+        <f aca="false">$AB$23/I23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="3" t="e">
+        <f aca="false">$AC$23/J23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="3" t="e">
+        <f aca="false">$AC$23/K23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="3" t="e">
+        <f aca="false">$AC$23/L23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="3" t="e">
+        <f aca="false">$AC$23/M23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="3" t="e">
+        <f aca="false">$AD$23/N23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="3" t="e">
+        <f aca="false">$AD$23/O23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" s="3" t="e">
+        <f aca="false">$AD$23/P23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" s="3" t="e">
+        <f aca="false">$AD$23/Q23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" s="3" t="e">
+        <f aca="false">$AD$23/R23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="3" t="e">
+        <f aca="false">$AD$23/S23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="3" t="e">
+        <f aca="false">$AD$23/T23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" s="3" t="e">
+        <f aca="false">$AD$23/U23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" s="3" t="e">
+        <f aca="false">$AD$23/V23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W31" s="3" t="e">
+        <f aca="false">$AD$23/W23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X31" s="3" t="e">
+        <f aca="false">$AD$23/X23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y31" s="3" t="e">
+        <f aca="false">$AD$23/Y23</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <f aca="false">B26/$AA$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <f aca="false">C26/$AA$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <f aca="false">D26/$AA$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <f aca="false">E26/$AA$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <f aca="false">F26/$AB$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <f aca="false">G26/$AB$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <f aca="false">H26/$AB$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <f aca="false">I26/$AB$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <f aca="false">J26/$AC$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="K32" s="5" t="n">
+        <f aca="false">K26/$AC$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="L32" s="5" t="n">
+        <f aca="false">L26/$AC$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="M32" s="5" t="n">
+        <f aca="false">M26/$AC$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="N32" s="5" t="n">
+        <f aca="false">N26/$AD$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="O32" s="5" t="n">
+        <f aca="false">O26/$AD$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="P32" s="5" t="n">
+        <f aca="false">P26/$AD$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="5" t="n">
+        <f aca="false">Q26/$AD$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="R32" s="5" t="n">
+        <f aca="false">R26/$AD$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="S32" s="5" t="n">
+        <f aca="false">S26/$AD$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="T32" s="5" t="n">
+        <f aca="false">T26/$AD$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="U32" s="5" t="n">
+        <f aca="false">U26/$AD$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="V32" s="5" t="n">
+        <f aca="false">V26/$AD$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="W32" s="5" t="n">
+        <f aca="false">W26/$AD$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="X32" s="5" t="n">
+        <f aca="false">X26/$AD$26 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="Y32" s="5" t="n">
+        <f aca="false">Y26/$AD$26 -1</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="Z1:AD33 B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -2619,9 +8708,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1012</v>
@@ -2648,9 +8737,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>15</v>
@@ -2677,9 +8766,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1268</v>
@@ -2706,9 +8795,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>345</v>
@@ -2735,9 +8824,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>7</v>
@@ -2764,9 +8853,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2793,9 +8882,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2822,9 +8911,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2851,9 +8940,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>563</v>
@@ -2880,9 +8969,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>917</v>
@@ -2909,9 +8998,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>12</v>
@@ -2938,9 +9027,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -2967,9 +9056,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">SUM(B6:B13)</f>
@@ -3004,9 +9093,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">SUM(B14:B16)</f>
@@ -3041,9 +9130,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">SUM(B20:B21)*3*8</f>
@@ -3078,9 +9167,9 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B24" s="4" t="n">
         <f aca="false">$B$23/B23</f>
@@ -3115,9 +9204,9 @@
         <v>107.252747252747</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">(B20*5+B21)*B3</f>
@@ -3152,9 +9241,9 @@
         <v>76750</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B27" s="6" t="n">
         <f aca="false">B26/$B$26 - 1</f>

--- a/netlists/results/sequentialResults.xlsx
+++ b/netlists/results/sequentialResults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="329" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="658" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="sum" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,13 +15,14 @@
     <sheet name="mult" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="matrixmult_8bit" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="AES" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="stackMachine" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="81">
   <si>
     <t>Sum (width/c)</t>
   </si>
@@ -262,6 +263,9 @@
   <si>
     <t>HEKM (imp. by Justgarble)</t>
   </si>
+  <si>
+    <t>stackMachine(bit)</t>
+  </si>
 </sst>
 </file>
 
@@ -10492,7 +10496,7 @@
   </sheetPr>
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -11026,4 +11030,509 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AG27"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.5765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>353</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>845</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>656</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2384</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>8068</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>803</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">SUM(B6:B13)</f>
+        <v>257</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">SUM(C6:C13)</f>
+        <v>518</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">SUM(D6:D13)</f>
+        <v>1321</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">SUM(E6:E13)</f>
+        <v>3563</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">SUM(F6:F13)</f>
+        <v>11233</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">SUM(B14:B16)</f>
+        <v>22</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">SUM(C14:C16)</f>
+        <v>82</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">SUM(D14:D16)</f>
+        <v>337</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">SUM(E14:E16)</f>
+        <v>1062</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">SUM(F14:F16)</f>
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">SUM(B20:B21)*3*8</f>
+        <v>6696</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">SUM(C20:C21)*3*8</f>
+        <v>14400</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">SUM(D20:D21)*3*8</f>
+        <v>39792</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">SUM(E20:E21)*3*8</f>
+        <v>111000</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">SUM(F20:F21)*3*8</f>
+        <v>369168</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <f aca="false">$B$23/B23</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <f aca="false">$C$23/C23</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <f aca="false">$D$23/D23</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <f aca="false">$E$23/E23</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <f aca="false">$F$23/F23</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">(5*B20+B21)*B3</f>
+        <v>1307</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">(5*C20+C21)*C3</f>
+        <v>2672</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">(5*D20+D21)*D3</f>
+        <v>6942</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">(5*E20+E21)*E3</f>
+        <v>18877</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">(5*F20+F21)*F3</f>
+        <v>60314</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <f aca="false">B26/$B$26 -1</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <f aca="false">C26/$C$26 -1</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <f aca="false">D26/$D$26 -1</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <f aca="false">E26/$E$26 -1</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <f aca="false">F26/$F$26 -1</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="0"/>
+      <c r="AE27" s="0"/>
+      <c r="AF27" s="0"/>
+      <c r="AG27" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/netlists/results/sequentialResults.xlsx
+++ b/netlists/results/sequentialResults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="658" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="658" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="sum" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,13 +16,14 @@
     <sheet name="matrixmult_8bit" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="AES" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="stackMachine" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="SHA3" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="84">
   <si>
     <t>Sum (width/c)</t>
   </si>
@@ -258,13 +259,22 @@
     <t>matrixmult 8bit (N, N^ clcok)</t>
   </si>
   <si>
-    <t>AES (c)</t>
+    <t>AES_128(c)</t>
   </si>
   <si>
     <t>HEKM (imp. by Justgarble)</t>
   </si>
   <si>
+    <t>Sequential storage efficiency (compare to HEKM)</t>
+  </si>
+  <si>
+    <t>Sequential Time Overhead (compare to HEKM)</t>
+  </si>
+  <si>
     <t>stackMachine(bit)</t>
+  </si>
+  <si>
+    <t>SHA3 (c)</t>
   </si>
 </sst>
 </file>
@@ -405,7 +415,7 @@
   <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10496,13 +10506,13 @@
   </sheetPr>
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.265306122449"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="0" width="11.5714285714286"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.6122448979592"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5714285714286"/>
@@ -10941,7 +10951,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B31" s="3" t="n">
         <f aca="false">$G$23/B23</f>
@@ -10982,7 +10992,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B32" s="5" t="n">
         <f aca="false">B26/$G$26 -1</f>
@@ -11040,7 +11050,7 @@
   </sheetPr>
   <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -11054,7 +11064,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>4</v>
@@ -11535,4 +11545,575 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AG27"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.5765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.75510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1120</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1088</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1042</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>7411</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5345</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>4098</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2853</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2248</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>14817</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>8736</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>6208</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>3680</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2423</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>653</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>672</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>611</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>599</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>7445</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3745</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1267</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>624</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>7723</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3937</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>2625</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1314</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>666</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>29724</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>15330</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>10224</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>5117</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2556</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>83428</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>42336</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>28225</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>14110</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>7058</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1603</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1604</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1607</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1613</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">SUM(B6:B13)</f>
+        <v>38400</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">SUM(C6:C13)</f>
+        <v>23555</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">SUM(D6:D13)</f>
+        <v>17159</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">SUM(E6:E13)</f>
+        <v>10781</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">SUM(F6:F13)</f>
+        <v>7602</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">SUM(G6:G13)</f>
+        <v>6023</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">SUM(B14:B16)</f>
+        <v>113152</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">SUM(C14:C16)</f>
+        <v>57667</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">SUM(D14:D16)</f>
+        <v>38450</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">SUM(E14:E16)</f>
+        <v>19228</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">SUM(F14:F16)</f>
+        <v>9615</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">SUM(G14:G16)</f>
+        <v>4808</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">SUM(B20:B21)*3*8</f>
+        <v>3637248</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">SUM(C20:C21)*3*8</f>
+        <v>1949328</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">SUM(D20:D21)*3*8</f>
+        <v>1334616</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">SUM(E20:E21)*3*8</f>
+        <v>720216</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">SUM(F20:F21)*3*8</f>
+        <v>413208</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">SUM(G20:G21)*3*8</f>
+        <v>259944</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <f aca="false">$B$23/B23</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <f aca="false">$B$23/C23</f>
+        <v>1.86589840191081</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <f aca="false">$B$23/D23</f>
+        <v>2.72531424769372</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <f aca="false">$B$23/E23</f>
+        <v>5.05021826785298</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <f aca="false">$B$23/F23</f>
+        <v>8.80246268223268</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <f aca="false">$B$23/G23</f>
+        <v>13.9924291385837</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">(5*B20+B21)*B3</f>
+        <v>305152</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">(5*C20+C21)*C3</f>
+        <v>350884</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">(5*D20+D21)*D3</f>
+        <v>372735</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">(5*E20+E21)*E3</f>
+        <v>438798</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">(5*F20+F21)*F3</f>
+        <v>571500</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">(5*G20+G21)*G3</f>
+        <v>838152</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <f aca="false">B26/$B$26 -1</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <f aca="false">C26/$B$26 -1</f>
+        <v>0.14986629614094</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <f aca="false">D26/$B$26 -1</f>
+        <v>0.221473233011745</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <f aca="false">E26/$B$26 -1</f>
+        <v>0.437965341862416</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <f aca="false">F26/$B$26 -1</f>
+        <v>0.872837143456376</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <f aca="false">G26/$B$26 -1</f>
+        <v>1.74667051174497</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="0"/>
+      <c r="AE27" s="0"/>
+      <c r="AF27" s="0"/>
+      <c r="AG27" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>